--- a/东兴馆店铺运营/沉香线香/2016.11.14/店铺整体经营情况.xlsx
+++ b/东兴馆店铺运营/沉香线香/2016.11.14/店铺整体经营情况.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,6 +133,14 @@
   </si>
   <si>
     <t>5s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.11.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.11.14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -182,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -197,6 +205,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -503,160 +514,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9" style="1"/>
-    <col min="19" max="19" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="11.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="9" style="1"/>
+    <col min="20" max="20" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>0.15890000000000001</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>492</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>214</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>34</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>34</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>31</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>178.35</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>6064</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
         <v>100</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T2" s="1">
         <v>0.82</v>
       </c>
-      <c r="T2" s="1">
+      <c r="U2" s="1">
         <v>2.0699999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>7.84</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>94</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>51</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>65</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>1.96</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>1.45</v>
-      </c>
-      <c r="K3" s="1">
-        <v>4</v>
       </c>
       <c r="L3" s="1">
         <v>4</v>
@@ -664,230 +677,237 @@
       <c r="M3" s="1">
         <v>4</v>
       </c>
-      <c r="O3" s="1">
+      <c r="N3" s="1">
+        <v>4</v>
+      </c>
+      <c r="P3" s="1">
         <v>188</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>752</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
         <v>100</v>
-      </c>
-      <c r="S3" s="1">
-        <v>0</v>
       </c>
       <c r="T3" s="1">
         <v>0</v>
       </c>
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>21.28</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>313</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>141</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>416.51</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>1.1299999999999999</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>93.88</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>30</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>32</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>30</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>177.07</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>5312</v>
       </c>
-      <c r="S4" s="1">
+      <c r="T4" s="1">
         <v>431.48</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>69</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>12</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>23.13</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>86.67</v>
       </c>
-      <c r="S5" s="1">
+      <c r="T5" s="1">
         <v>20.46</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:20" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:20" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:21" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:21" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="M8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="T8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>16.829999999999998</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>516</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>208</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>35</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>37</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>35</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>34</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>185.63</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <v>6497</v>
       </c>
-      <c r="R9" s="1">
+      <c r="S9" s="1">
         <v>100</v>
       </c>
-      <c r="S9" s="1">
+      <c r="T9" s="1">
         <v>0.78</v>
       </c>
-      <c r="T9" s="1">
+      <c r="U9" s="1">
         <v>1.97</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>10.42</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>92</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <v>48</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <v>90</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>4.17</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>1.02</v>
-      </c>
-      <c r="K10" s="1">
-        <v>5</v>
       </c>
       <c r="L10" s="1">
         <v>5</v>
@@ -899,94 +919,101 @@
         <v>5</v>
       </c>
       <c r="O10" s="1">
+        <v>5</v>
+      </c>
+      <c r="P10" s="1">
         <v>188</v>
       </c>
-      <c r="P10" s="1">
+      <c r="Q10" s="1">
         <v>940</v>
       </c>
-      <c r="R10" s="1">
+      <c r="S10" s="1">
         <v>100</v>
-      </c>
-      <c r="S10" s="1">
-        <v>0</v>
       </c>
       <c r="T10" s="1">
         <v>0</v>
       </c>
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>20</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>394</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>150</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>192.73</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>92.67</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>30</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>32</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <v>30</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P11" s="1">
         <v>185.23</v>
       </c>
-      <c r="P11" s="1">
+      <c r="Q11" s="1">
         <v>5557</v>
       </c>
-      <c r="S11" s="1">
+      <c r="T11" s="1">
         <v>250.88</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>24</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <v>7</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>1.85</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>76.92</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B9:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
